--- a/Draft_cost Estimate.xlsx
+++ b/Draft_cost Estimate.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538336\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538360\Documents\github\GDP-1-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC1B02B-61BF-4FC7-8195-91B9F380B1D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -121,7 +122,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
@@ -177,17 +178,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,38 +477,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="33.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -511,295 +522,295 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2">
-        <v>350</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="7">
+        <v>350</v>
+      </c>
+      <c r="C5" s="8">
         <v>10</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="7">
         <f>B5*C5</f>
         <v>3500</v>
       </c>
       <c r="E5" s="7">
-        <f>D5*3</f>
+        <f t="shared" ref="E5:E17" si="0">D5*3</f>
         <v>10500</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="7">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>350</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="7">
+        <v>350</v>
+      </c>
+      <c r="C6" s="8">
         <v>9.5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="7">
         <f>B6*C6</f>
         <v>3325</v>
       </c>
       <c r="E6" s="7">
-        <f>D6*3</f>
+        <f t="shared" si="0"/>
         <v>9975</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="7">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>350</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="7">
+        <v>350</v>
+      </c>
+      <c r="C7" s="8">
         <v>11.5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="7">
         <f>B7*C7</f>
         <v>4025</v>
       </c>
       <c r="E7" s="7">
-        <f>D7*3</f>
+        <f t="shared" si="0"/>
         <v>12075</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="7">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>350</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="7">
+        <v>350</v>
+      </c>
+      <c r="C8" s="8">
         <v>6</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="7">
         <v>2100</v>
       </c>
       <c r="E8" s="7">
-        <f>D8*3</f>
+        <f t="shared" si="0"/>
         <v>6300</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
-        <v>350</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="7">
+        <v>350</v>
+      </c>
+      <c r="C9" s="8">
         <v>9.5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="7">
         <v>3325</v>
       </c>
       <c r="E9" s="7">
-        <f>D9*3</f>
+        <f t="shared" si="0"/>
         <v>9975</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <v>350</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="7">
+        <v>350</v>
+      </c>
+      <c r="C10" s="8">
         <v>5.5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="7">
         <v>1925</v>
       </c>
       <c r="E10" s="7">
-        <f>D10*3</f>
+        <f t="shared" si="0"/>
         <v>5775</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
-        <v>350</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="7">
+        <v>350</v>
+      </c>
+      <c r="C11" s="8">
         <v>7</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="7">
         <v>2450</v>
       </c>
       <c r="E11" s="7">
-        <f>D11*3</f>
+        <f t="shared" si="0"/>
         <v>7350</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
-        <v>350</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12" s="7">
+        <v>350</v>
+      </c>
+      <c r="C12" s="8">
         <v>10.5</v>
       </c>
-      <c r="D12" s="2">
-        <f>B12*C12</f>
+      <c r="D12" s="7">
+        <f t="shared" ref="D12:D17" si="1">B12*C12</f>
         <v>3675</v>
       </c>
       <c r="E12" s="7">
-        <f>D12*3</f>
+        <f t="shared" si="0"/>
         <v>11025</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
-        <v>350</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" s="7">
+        <v>350</v>
+      </c>
+      <c r="C13" s="8">
         <v>11</v>
       </c>
-      <c r="D13" s="2">
-        <f>B13*C13</f>
+      <c r="D13" s="7">
+        <f t="shared" si="1"/>
         <v>3850</v>
       </c>
       <c r="E13" s="7">
-        <f>D13*3</f>
+        <f t="shared" si="0"/>
         <v>11550</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
-        <v>350</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="7">
+        <v>350</v>
+      </c>
+      <c r="C14" s="8">
         <v>5</v>
       </c>
-      <c r="D14" s="2">
-        <f>B14*C14</f>
+      <c r="D14" s="7">
+        <f t="shared" si="1"/>
         <v>1750</v>
       </c>
       <c r="E14" s="7">
-        <f>D14*3</f>
+        <f t="shared" si="0"/>
         <v>5250</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
-        <v>350</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15" s="7">
+        <v>350</v>
+      </c>
+      <c r="C15" s="8">
         <v>6</v>
       </c>
-      <c r="D15" s="2">
-        <f>B15*C15</f>
+      <c r="D15" s="7">
+        <f t="shared" si="1"/>
         <v>2100</v>
       </c>
       <c r="E15" s="7">
-        <f>D15*3</f>
+        <f t="shared" si="0"/>
         <v>6300</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2">
-        <v>350</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="7">
+        <v>350</v>
+      </c>
+      <c r="C16" s="8">
         <v>12</v>
       </c>
-      <c r="D16" s="2">
-        <f>B16*C16</f>
+      <c r="D16" s="7">
+        <f t="shared" si="1"/>
         <v>4200</v>
       </c>
       <c r="E16" s="7">
-        <f>D16*3</f>
+        <f t="shared" si="0"/>
         <v>12600</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2">
-        <v>350</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17" s="7">
+        <v>350</v>
+      </c>
+      <c r="C17" s="8">
         <v>6.5</v>
       </c>
-      <c r="D17" s="2">
-        <f>B17*C17</f>
+      <c r="D17" s="7">
+        <f t="shared" si="1"/>
         <v>2275</v>
       </c>
       <c r="E17" s="7">
-        <f>D17*3</f>
+        <f t="shared" si="0"/>
         <v>6825</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8">
         <f>SUM(C5:C17)</f>
         <v>110</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="7">
         <f>SUM(D5:D17)</f>
         <v>38500</v>
       </c>
